--- a/docs/odh/obf-Composition.xlsx
+++ b/docs/odh/obf-Composition.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="404">
   <si>
     <t>Path</t>
   </si>
@@ -500,7 +500,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-DomainResource)
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -531,7 +531,7 @@
     <t>Composition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Encounter)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter)
 </t>
   </si>
   <si>
@@ -596,7 +596,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Practitioner|http://hl7.org/fhir/us/odh/StructureDefinition/obf-RelatedPerson|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Organization|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Device)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-device|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|RelatedPerson|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization)
 </t>
   </si>
   <si>
@@ -788,7 +788,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Practitioner|http://hl7.org/fhir/us/odh/StructureDefinition/obf-RelatedPerson|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|RelatedPerson|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole)
 </t>
   </si>
   <si>
@@ -813,7 +813,7 @@
     <t>Composition.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization)
 </t>
   </si>
   <si>
@@ -1243,10 +1243,6 @@
   </si>
   <si>
     <t>Composition.section.section.focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
   </si>
   <si>
     <t>Composition.section.section.text</t>
@@ -8473,7 +8469,7 @@
         <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>398</v>
+        <v>156</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>344</v>
@@ -8564,7 +8560,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8678,7 +8674,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8794,7 +8790,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8910,7 +8906,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8933,7 +8929,7 @@
         <v>41</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>398</v>
+        <v>156</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>371</v>
@@ -9024,7 +9020,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9140,7 +9136,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
